--- a/Carcasa_1050.xlsx
+++ b/Carcasa_1050.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet-my.sharepoint.com/personal/x341135_santanderglobaltech_com/Documents/Escritorio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AE9E38-BE65-4EC2-97FC-BF04754E15F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="historical_clients" sheetId="1" r:id="rId1"/>
+    <sheet name="tr_clients_reports" sheetId="2" r:id="rId2"/>
+    <sheet name="Resultado de la carga" sheetId="4" r:id="rId3"/>
+    <sheet name="Leyenda" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +27,480 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="148">
+  <si>
+    <t>5493006QMFDDMYWIAM13</t>
+  </si>
+  <si>
+    <t>CLNT</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>ES11075430X</t>
+  </si>
+  <si>
+    <t>SANCHEZ,PRIETO</t>
+  </si>
+  <si>
+    <t>ES70923516A</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>TAMAMES,GONZALEZ</t>
+  </si>
+  <si>
+    <t>ES23273244G</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>GARCIA,MOLINA</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>clists</t>
+  </si>
+  <si>
+    <t>clientid</t>
+  </si>
+  <si>
+    <t>systemts</t>
+  </si>
+  <si>
+    <t>reponsets</t>
+  </si>
+  <si>
+    <t>processts</t>
+  </si>
+  <si>
+    <t>fileassociated</t>
+  </si>
+  <si>
+    <t>fileresponse</t>
+  </si>
+  <si>
+    <t>warningreasoncode</t>
+  </si>
+  <si>
+    <t>errorreasoncode</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>unique_content</t>
+  </si>
+  <si>
+    <t>error_code</t>
+  </si>
+  <si>
+    <t>error_description</t>
+  </si>
+  <si>
+    <t>error_field</t>
+  </si>
+  <si>
+    <t>ht_system_desc</t>
+  </si>
+  <si>
+    <t>ht_product_desc</t>
+  </si>
+  <si>
+    <t>ht_user_desc</t>
+  </si>
+  <si>
+    <t>ht_entity</t>
+  </si>
+  <si>
+    <t>ht_system</t>
+  </si>
+  <si>
+    <t>ht_product</t>
+  </si>
+  <si>
+    <t>AACK</t>
+  </si>
+  <si>
+    <t>NEWM</t>
+  </si>
+  <si>
+    <t>00J3PJX</t>
+  </si>
+  <si>
+    <t>20230822090254000000</t>
+  </si>
+  <si>
+    <t>20230822073134</t>
+  </si>
+  <si>
+    <t>TRAX_NPD_NPDM_800057_20230822_0002.csv</t>
+  </si>
+  <si>
+    <t>TRAX_NPD_RESP_NPDM_800057_20230822_0002_20230822062001.csv</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>GENERIC</t>
+  </si>
+  <si>
+    <t>REPL</t>
+  </si>
+  <si>
+    <t>F014055064X</t>
+  </si>
+  <si>
+    <t>20230821230124000000</t>
+  </si>
+  <si>
+    <t>20230821220147</t>
+  </si>
+  <si>
+    <t>TRAX_NPD_NPDM_800057_20230821_0004.csv</t>
+  </si>
+  <si>
+    <t>TRAX_NPD_RESP_NPDM_800057_20230821_0004_20230821204913.csv</t>
+  </si>
+  <si>
+    <t>SIBBACVALORES</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
+    <t>AREJ</t>
+  </si>
+  <si>
+    <t>OPBF000794216X</t>
+  </si>
+  <si>
+    <t>20230920110134000413</t>
+  </si>
+  <si>
+    <t>20230920103043</t>
+  </si>
+  <si>
+    <t>TRAX_NPD_NPDM_800057_20230920_0005.csv</t>
+  </si>
+  <si>
+    <t>TRAX_NPD_RESP_NPDM_800057_20230920_0005_20230920091915.csv</t>
+  </si>
+  <si>
+    <t>1003|1008</t>
+  </si>
+  <si>
+    <t>An active Entity Mapping already exists for the given internal code|Internal Code does not identify a unique entity mapping for the Executing Entity</t>
+  </si>
+  <si>
+    <t>InternalCode|ExecutingEntity</t>
+  </si>
+  <si>
+    <t>SIBBACOPB</t>
+  </si>
+  <si>
+    <t>F010249173X</t>
+  </si>
+  <si>
+    <t>20230926230201000386</t>
+  </si>
+  <si>
+    <t>20230926220038</t>
+  </si>
+  <si>
+    <t>TRAX_NPD_NPDM_800057_20230926_0013.csv</t>
+  </si>
+  <si>
+    <t>TRAX_NPD_RESP_NPDM_800057_20230926_0013_20230926204659.csv</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>Natural Person Type must be entered - LEI not entered for the entity mapping</t>
+  </si>
+  <si>
+    <t>NaturalPersonType</t>
+  </si>
+  <si>
+    <t>3internal_code</t>
+  </si>
+  <si>
+    <t>personid</t>
+  </si>
+  <si>
+    <t>4business_unit</t>
+  </si>
+  <si>
+    <t>5effective_from_date</t>
+  </si>
+  <si>
+    <t>6expiry_date</t>
+  </si>
+  <si>
+    <t>8country_of_branch</t>
+  </si>
+  <si>
+    <t>9lei</t>
+  </si>
+  <si>
+    <t>10lei_type</t>
+  </si>
+  <si>
+    <t>11natural_person_type</t>
+  </si>
+  <si>
+    <t>12country_of_nationality</t>
+  </si>
+  <si>
+    <t>13passport_number</t>
+  </si>
+  <si>
+    <t>14national_id</t>
+  </si>
+  <si>
+    <t>15concat_id</t>
+  </si>
+  <si>
+    <t>16first_names</t>
+  </si>
+  <si>
+    <t>17surnames</t>
+  </si>
+  <si>
+    <t>18date_of_birth</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>uniqueid</t>
+  </si>
+  <si>
+    <t>validationstatus</t>
+  </si>
+  <si>
+    <t>system_desc</t>
+  </si>
+  <si>
+    <t>product_desc</t>
+  </si>
+  <si>
+    <t>user_desc</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>versiondate</t>
+  </si>
+  <si>
+    <t>ES23273244L</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>PEREZ,MOLINA</t>
+  </si>
+  <si>
+    <t>1970-11-06</t>
+  </si>
+  <si>
+    <t>BDPOPB</t>
+  </si>
+  <si>
+    <t>Light errors</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>1979-09-12</t>
+  </si>
+  <si>
+    <t>ES27312365A</t>
+  </si>
+  <si>
+    <t>ILDEFONSO</t>
+  </si>
+  <si>
+    <t>RIVERO,POZO</t>
+  </si>
+  <si>
+    <t>BDPSAN</t>
+  </si>
+  <si>
+    <t>1961-12-02</t>
+  </si>
+  <si>
+    <t>ANA,MARTA</t>
+  </si>
+  <si>
+    <t>1969-02-28</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>Caso 1</t>
+  </si>
+  <si>
+    <t>No estaban en la tabla de historical clients</t>
+  </si>
+  <si>
+    <t>Caso 2.0.1</t>
+  </si>
+  <si>
+    <t>Si error description incluye "An active Entity Mapping already exists..." (cod 1003)</t>
+  </si>
+  <si>
+    <t>Último estado es AREJ con o sin cambios</t>
+  </si>
+  <si>
+    <t>Esta en historical_clients</t>
+  </si>
+  <si>
+    <t>Caso 2.0.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El error es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>distinto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de "An active Entity Mapping already exists..."</t>
+    </r>
+  </si>
+  <si>
+    <t>Caso 2.1.1</t>
+  </si>
+  <si>
+    <t>Presenta cambios con la versión anterior de tr_clientes</t>
+  </si>
+  <si>
+    <t>Último estado es AACK o AWAIT RESPONSE</t>
+  </si>
+  <si>
+    <t>Caso 2.1.2</t>
+  </si>
+  <si>
+    <t>No presenta cambios con la versión anterior de tr_clients</t>
+  </si>
+  <si>
+    <t>NO SE ENVIA</t>
+  </si>
+  <si>
+    <t>MessageID</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>InternalCode</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>EffectiveFromDate</t>
+  </si>
+  <si>
+    <t>ExecutingEntity</t>
+  </si>
+  <si>
+    <t>CountryofBranch</t>
+  </si>
+  <si>
+    <t>LEI</t>
+  </si>
+  <si>
+    <t>LEIType</t>
+  </si>
+  <si>
+    <t>BusinessUnit</t>
+  </si>
+  <si>
+    <t>ContactEmail</t>
+  </si>
+  <si>
+    <t>ParentOfCollectiveInvestmentSchemeStatus</t>
+  </si>
+  <si>
+    <t>CountryofNationality</t>
+  </si>
+  <si>
+    <t>PassportNumber</t>
+  </si>
+  <si>
+    <t>NationalID</t>
+  </si>
+  <si>
+    <t>CONCAT</t>
+  </si>
+  <si>
+    <t>FirstNames</t>
+  </si>
+  <si>
+    <t>Surnames</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>00J3PLX</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>OPBF000794216X,,,,5493006QMFDDMYWIAM13,ES,,,CLNT,ES,,ES23273244G,,GUILLERMO,GARCIA,MOLINA",1979-09-12"</t>
+  </si>
+  <si>
+    <t>F010249173X,,,,5493006QMFDDMYWIAM13,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>F014055064X,,,,5493006QMFDDMYWIAM13,ES,,,CLNT,ES,,ES70923516A,,MARCELINO,TAMAMES,GONZALEZ",1961-12-02"</t>
+  </si>
+  <si>
+    <t>00J3PJX,,,,5493006QMFDDMYWIAM13,,,,CLNT,ES,,ES11075430X,,ANA,MARIA","SANCHEZ,PRIETO",1969-02-28"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +508,89 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFF8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1ADEF"/>
+        <bgColor rgb="FFF1ADEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1ADEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,18 +598,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF1ADEF"/>
+      <color rgb="FFB4C6E7"/>
+      <color rgb="FFA9D08E"/>
+      <color rgb="FFFFE699"/>
+      <color rgb="FFF8CBAD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +1014,1022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="100.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="121.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4330C2A5-103A-4BA4-A63C-A20F0E69324C}">
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B42520F-3EE3-4BF6-B445-E2F876202F83}">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94DB642-48F4-48B2-9B77-34808BCFC325}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>